--- a/artfynd/A 65339-2020.xlsx
+++ b/artfynd/A 65339-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98309393</v>
+        <v>98309370</v>
       </c>
       <c r="B2" t="n">
-        <v>77259</v>
+        <v>76486</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6487</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>731235.8522325524</v>
+        <v>731689.2582079264</v>
       </c>
       <c r="R2" t="n">
-        <v>7376676.557762993</v>
+        <v>7376738.438564702</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98309370</v>
+        <v>98309378</v>
       </c>
       <c r="B3" t="n">
-        <v>76486</v>
+        <v>89557</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6487</v>
+        <v>1588</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>731689.2582079264</v>
+        <v>731649.8782328044</v>
       </c>
       <c r="R3" t="n">
-        <v>7376738.438564702</v>
+        <v>7376761.699519293</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98309382</v>
+        <v>98309381</v>
       </c>
       <c r="B4" t="n">
-        <v>77259</v>
+        <v>78072</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>731403.11002834</v>
+        <v>731838.9865492693</v>
       </c>
       <c r="R4" t="n">
-        <v>7376669.562423261</v>
+        <v>7376589.245641207</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98309375</v>
+        <v>98309399</v>
       </c>
       <c r="B5" t="n">
-        <v>76486</v>
+        <v>77177</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6487</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>731432.4946513888</v>
+        <v>731854.4482659802</v>
       </c>
       <c r="R5" t="n">
-        <v>7376655.117401748</v>
+        <v>7376635.580042192</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98309394</v>
+        <v>98309388</v>
       </c>
       <c r="B6" t="n">
         <v>77258</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>731182.4360512518</v>
+        <v>731842.185295867</v>
       </c>
       <c r="R6" t="n">
-        <v>7376650.800582756</v>
+        <v>7376589.512392812</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98309403</v>
+        <v>98309410</v>
       </c>
       <c r="B7" t="n">
-        <v>76486</v>
+        <v>77177</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6487</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>731022.5689237923</v>
+        <v>731797.010261463</v>
       </c>
       <c r="R7" t="n">
-        <v>7376636.706626785</v>
+        <v>7376754.660089736</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98309392</v>
+        <v>98309352</v>
       </c>
       <c r="B8" t="n">
         <v>78098</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>731427.4929182789</v>
+        <v>731842.185295867</v>
       </c>
       <c r="R8" t="n">
-        <v>7376632.983747669</v>
+        <v>7376589.512392812</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98309378</v>
+        <v>110049844</v>
       </c>
       <c r="B9" t="n">
-        <v>89557</v>
+        <v>90669</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1588</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>731649.8782328044</v>
+        <v>731639.0991590153</v>
       </c>
       <c r="R9" t="n">
-        <v>7376761.699519293</v>
+        <v>7376586.660402158</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98309381</v>
+        <v>110049855</v>
       </c>
       <c r="B10" t="n">
-        <v>78072</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,34 +1592,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>731838.9865492693</v>
+        <v>731870.4738381733</v>
       </c>
       <c r="R10" t="n">
-        <v>7376589.245641207</v>
+        <v>7376573.772968084</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98309414</v>
+        <v>110049849</v>
       </c>
       <c r="B11" t="n">
-        <v>77258</v>
+        <v>90641</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,38 +1700,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>149</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>731022.5689237923</v>
+        <v>731934.4491850873</v>
       </c>
       <c r="R11" t="n">
-        <v>7376636.706626785</v>
+        <v>7376482.581176154</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1788,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98309359</v>
+        <v>98309393</v>
       </c>
       <c r="B12" t="n">
-        <v>76909</v>
+        <v>77259</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>731718.1087036126</v>
+        <v>731235.8522325524</v>
       </c>
       <c r="R12" t="n">
-        <v>7376266.65032377</v>
+        <v>7376676.557762993</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98309399</v>
+        <v>98309382</v>
       </c>
       <c r="B13" t="n">
-        <v>77177</v>
+        <v>77259</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>731854.4482659802</v>
+        <v>731403.11002834</v>
       </c>
       <c r="R13" t="n">
-        <v>7376635.580042192</v>
+        <v>7376669.562423261</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98309388</v>
+        <v>98309375</v>
       </c>
       <c r="B14" t="n">
-        <v>77258</v>
+        <v>76486</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>6487</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>731842.185295867</v>
+        <v>731432.4946513888</v>
       </c>
       <c r="R14" t="n">
-        <v>7376589.512392812</v>
+        <v>7376655.117401748</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98309415</v>
+        <v>98309394</v>
       </c>
       <c r="B15" t="n">
-        <v>89317</v>
+        <v>77258</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3242</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>731037.498617155</v>
+        <v>731182.4360512518</v>
       </c>
       <c r="R15" t="n">
-        <v>7376645.99056433</v>
+        <v>7376650.800582756</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98309400</v>
+        <v>98309403</v>
       </c>
       <c r="B16" t="n">
         <v>76486</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>731718.1087036126</v>
+        <v>731022.5689237923</v>
       </c>
       <c r="R16" t="n">
-        <v>7376266.65032377</v>
+        <v>7376636.706626785</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98309410</v>
+        <v>98309392</v>
       </c>
       <c r="B17" t="n">
-        <v>77177</v>
+        <v>78098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>731797.010261463</v>
+        <v>731427.4929182789</v>
       </c>
       <c r="R17" t="n">
-        <v>7376754.660089736</v>
+        <v>7376632.983747669</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98309352</v>
+        <v>98309414</v>
       </c>
       <c r="B18" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>731842.185295867</v>
+        <v>731022.5689237923</v>
       </c>
       <c r="R18" t="n">
-        <v>7376589.512392812</v>
+        <v>7376636.706626785</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110049844</v>
+        <v>98309359</v>
       </c>
       <c r="B19" t="n">
-        <v>90669</v>
+        <v>76909</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,34 +2600,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2059</v>
+        <v>6437</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>731639.0991590153</v>
+        <v>731718.1087036126</v>
       </c>
       <c r="R19" t="n">
-        <v>7376586.660402158</v>
+        <v>7376266.65032377</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2684,22 +2684,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110049855</v>
+        <v>98309415</v>
       </c>
       <c r="B20" t="n">
-        <v>56395</v>
+        <v>89317</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,34 +2712,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3242</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>731870.4738381733</v>
+        <v>731037.498617155</v>
       </c>
       <c r="R20" t="n">
-        <v>7376573.772968084</v>
+        <v>7376645.99056433</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2796,22 +2796,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110049849</v>
+        <v>98309400</v>
       </c>
       <c r="B21" t="n">
-        <v>90641</v>
+        <v>76486</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,38 +2820,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>149</v>
+        <v>6487</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>731934.4491850873</v>
+        <v>731718.1087036126</v>
       </c>
       <c r="R21" t="n">
-        <v>7376482.581176154</v>
+        <v>7376266.65032377</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2908,12 +2908,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 65339-2020.xlsx
+++ b/artfynd/A 65339-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98309370</v>
+        <v>98309393</v>
       </c>
       <c r="B2" t="n">
-        <v>76486</v>
+        <v>77259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>731689.2582079264</v>
+        <v>731235.8522325524</v>
       </c>
       <c r="R2" t="n">
-        <v>7376738.438564702</v>
+        <v>7376676.557762993</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98309378</v>
+        <v>98309370</v>
       </c>
       <c r="B3" t="n">
-        <v>89557</v>
+        <v>76486</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1588</v>
+        <v>6487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>731649.8782328044</v>
+        <v>731689.2582079264</v>
       </c>
       <c r="R3" t="n">
-        <v>7376761.699519293</v>
+        <v>7376738.438564702</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98309381</v>
+        <v>98309382</v>
       </c>
       <c r="B4" t="n">
-        <v>78072</v>
+        <v>77259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>731838.9865492693</v>
+        <v>731403.11002834</v>
       </c>
       <c r="R4" t="n">
-        <v>7376589.245641207</v>
+        <v>7376669.562423261</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98309399</v>
+        <v>98309375</v>
       </c>
       <c r="B5" t="n">
-        <v>77177</v>
+        <v>76486</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>6487</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>731854.4482659802</v>
+        <v>731432.4946513888</v>
       </c>
       <c r="R5" t="n">
-        <v>7376635.580042192</v>
+        <v>7376655.117401748</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98309388</v>
+        <v>98309394</v>
       </c>
       <c r="B6" t="n">
         <v>77258</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>731842.185295867</v>
+        <v>731182.4360512518</v>
       </c>
       <c r="R6" t="n">
-        <v>7376589.512392812</v>
+        <v>7376650.800582756</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98309410</v>
+        <v>98309403</v>
       </c>
       <c r="B7" t="n">
-        <v>77177</v>
+        <v>76486</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>6487</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>731797.010261463</v>
+        <v>731022.5689237923</v>
       </c>
       <c r="R7" t="n">
-        <v>7376754.660089736</v>
+        <v>7376636.706626785</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98309352</v>
+        <v>98309392</v>
       </c>
       <c r="B8" t="n">
         <v>78098</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>731842.185295867</v>
+        <v>731427.4929182789</v>
       </c>
       <c r="R8" t="n">
-        <v>7376589.512392812</v>
+        <v>7376632.983747669</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110049844</v>
+        <v>98309378</v>
       </c>
       <c r="B9" t="n">
-        <v>90669</v>
+        <v>89557</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>1588</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>731639.0991590153</v>
+        <v>731649.8782328044</v>
       </c>
       <c r="R9" t="n">
-        <v>7376586.660402158</v>
+        <v>7376761.699519293</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110049855</v>
+        <v>98309381</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>78072</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,34 +1592,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>731870.4738381733</v>
+        <v>731838.9865492693</v>
       </c>
       <c r="R10" t="n">
-        <v>7376573.772968084</v>
+        <v>7376589.245641207</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110049849</v>
+        <v>98309414</v>
       </c>
       <c r="B11" t="n">
-        <v>90641</v>
+        <v>77258</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,38 +1700,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>149</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
+          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>731934.4491850873</v>
+        <v>731022.5689237923</v>
       </c>
       <c r="R11" t="n">
-        <v>7376482.581176154</v>
+        <v>7376636.706626785</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1788,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98309393</v>
+        <v>98309359</v>
       </c>
       <c r="B12" t="n">
-        <v>77259</v>
+        <v>76909</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>731235.8522325524</v>
+        <v>731718.1087036126</v>
       </c>
       <c r="R12" t="n">
-        <v>7376676.557762993</v>
+        <v>7376266.65032377</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98309382</v>
+        <v>98309399</v>
       </c>
       <c r="B13" t="n">
-        <v>77259</v>
+        <v>77177</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>731403.11002834</v>
+        <v>731854.4482659802</v>
       </c>
       <c r="R13" t="n">
-        <v>7376669.562423261</v>
+        <v>7376635.580042192</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98309375</v>
+        <v>98309388</v>
       </c>
       <c r="B14" t="n">
-        <v>76486</v>
+        <v>77258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>731432.4946513888</v>
+        <v>731842.185295867</v>
       </c>
       <c r="R14" t="n">
-        <v>7376655.117401748</v>
+        <v>7376589.512392812</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98309394</v>
+        <v>98309415</v>
       </c>
       <c r="B15" t="n">
-        <v>77258</v>
+        <v>89317</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>3242</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>731182.4360512518</v>
+        <v>731037.498617155</v>
       </c>
       <c r="R15" t="n">
-        <v>7376650.800582756</v>
+        <v>7376645.99056433</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98309403</v>
+        <v>98309400</v>
       </c>
       <c r="B16" t="n">
         <v>76486</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>731022.5689237923</v>
+        <v>731718.1087036126</v>
       </c>
       <c r="R16" t="n">
-        <v>7376636.706626785</v>
+        <v>7376266.65032377</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98309392</v>
+        <v>98309410</v>
       </c>
       <c r="B17" t="n">
-        <v>78098</v>
+        <v>77177</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>731427.4929182789</v>
+        <v>731797.010261463</v>
       </c>
       <c r="R17" t="n">
-        <v>7376632.983747669</v>
+        <v>7376754.660089736</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98309414</v>
+        <v>98309352</v>
       </c>
       <c r="B18" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>731022.5689237923</v>
+        <v>731842.185295867</v>
       </c>
       <c r="R18" t="n">
-        <v>7376636.706626785</v>
+        <v>7376589.512392812</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>98309359</v>
+        <v>110049844</v>
       </c>
       <c r="B19" t="n">
-        <v>76909</v>
+        <v>90669</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2600,34 +2600,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6437</v>
+        <v>2059</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>731718.1087036126</v>
+        <v>731639.0991590153</v>
       </c>
       <c r="R19" t="n">
-        <v>7376266.65032377</v>
+        <v>7376586.660402158</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2684,22 +2684,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>98309415</v>
+        <v>110049855</v>
       </c>
       <c r="B20" t="n">
-        <v>89317</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2712,34 +2712,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3242</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>731037.498617155</v>
+        <v>731870.4738381733</v>
       </c>
       <c r="R20" t="n">
-        <v>7376645.99056433</v>
+        <v>7376573.772968084</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2796,22 +2796,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>98309400</v>
+        <v>110049849</v>
       </c>
       <c r="B21" t="n">
-        <v>76486</v>
+        <v>90641</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2820,38 +2820,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6487</v>
+        <v>149</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kullmyrbäcken-Kåtamyrbäcken-Gör, Lu lm</t>
+          <t>Kåtamyrbäcken-Görjeån, Lu lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>731718.1087036126</v>
+        <v>731934.4491850873</v>
       </c>
       <c r="R21" t="n">
-        <v>7376266.65032377</v>
+        <v>7376482.581176154</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2908,12 +2908,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
